--- a/P/Work.WebApp/_Code/Excel/禮斗金名冊格式.xlsx
+++ b/P/Work.WebApp/_Code/Excel/禮斗金名冊格式.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="120" windowWidth="19440" windowHeight="11895"/>
   </bookViews>
   <sheets>
-    <sheet name="SheetPrint" sheetId="3" r:id="rId1"/>
-    <sheet name="style" sheetId="2" r:id="rId2"/>
+    <sheet name="SheetPrint" sheetId="4" r:id="rId1"/>
+    <sheet name="style" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -17,31 +17,72 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>戶長姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+      </rPr>
+      <t>禮斗名稱</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>住址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+      </rPr>
+      <t>戶長姓名</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>電話</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+      </rPr>
+      <t>住址</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>備註</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+      </rPr>
+      <t>電話</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>禮斗名稱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+      </rPr>
+      <t>備註</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -86,6 +127,27 @@
       <name val="標楷體"/>
       <family val="4"/>
       <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="標楷體"/>
+      <family val="4"/>
     </font>
   </fonts>
   <fills count="2">
@@ -146,57 +208,48 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" textRotation="180" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255" wrapText="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="一般 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -500,9 +553,6 @@
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="11" width="7.75" customWidth="1"/>
-  </cols>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -511,132 +561,108 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="11" width="7.75" customWidth="1"/>
+    <col min="1" max="11" width="7.75" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="150" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11"/>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="10" t="s">
+    <row r="1" spans="1:11" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="175.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="366.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="287.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="13"/>
-    </row>
-    <row r="5" spans="1:11" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="5"/>
-    </row>
-    <row r="8" spans="1:11" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="5"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.28000000000000003" bottom="0.28999999999999998" header="0.11811023622047245" footer="0.11811023622047245"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/P/Work.WebApp/_Code/Excel/禮斗金名冊格式.xlsx
+++ b/P/Work.WebApp/_Code/Excel/禮斗金名冊格式.xlsx
@@ -37,18 +37,6 @@
         <rFont val="標楷體"/>
         <family val="4"/>
       </rPr>
-      <t>戶長姓名</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-      </rPr>
       <t>住址</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
@@ -77,6 +65,10 @@
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
+  <si>
+    <t>申請人姓名</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -214,7 +206,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -245,6 +237,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" textRotation="255" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -564,7 +559,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -598,8 +593,8 @@
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
-      <c r="K2" s="6" t="s">
-        <v>1</v>
+      <c r="K2" s="11" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -614,7 +609,7 @@
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
       <c r="K3" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="366.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -642,7 +637,7 @@
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
       <c r="K5" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -657,7 +652,7 @@
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
       <c r="K6" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
